--- a/data/metrics_summary_file.xlsx
+++ b/data/metrics_summary_file.xlsx
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9469870327993897</v>
+        <v>0.9488340416258036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9406166011574238</v>
+        <v>0.9427496795806606</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9469870327993897</v>
+        <v>0.9488340416258036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9363506264582566</v>
+        <v>0.9385724351841546</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05060039940740918</v>
+        <v>0.04899467844950395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05400976988028473</v>
+        <v>0.05179197233578875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05060039940740918</v>
+        <v>0.04899467844950395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05367158859730874</v>
+        <v>0.05160019288240044</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7763157894736842</v>
+        <v>0.7856598016781083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7754672591298543</v>
+        <v>0.7851128414084616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7763157894736842</v>
+        <v>0.7856598016781083</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7739229569710026</v>
+        <v>0.7832789514863805</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9388825324180015</v>
+        <v>0.9412662090007627</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9274837179762848</v>
+        <v>0.9332903668548715</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9388825324180015</v>
+        <v>0.9412662090007627</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9247449237114149</v>
+        <v>0.9294924787165334</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9599542334096109</v>
+        <v>0.9591914569031273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9567605951503231</v>
+        <v>0.9550594209700584</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9599542334096109</v>
+        <v>0.9591914569031273</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9547250502086686</v>
+        <v>0.9522854753899208</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9810259344012204</v>
+        <v>0.9836956521739131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9793170682629613</v>
+        <v>0.9807274679014961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9810259344012204</v>
+        <v>0.9836956521739131</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9738205947442509</v>
+        <v>0.977371875105683</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9971395881006865</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9971477700569202</v>
+        <v>0.9963899390884268</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9971395881006865</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9957114305697489</v>
+        <v>0.9945685052210738</v>
       </c>
     </row>
   </sheetData>
